--- a/Results/Results_Full_Report.xlsx
+++ b/Results/Results_Full_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denista\Desktop\Pers\Masters\Exercises\MachineLearning1stSem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E589B-075C-44A1-889A-BB2B4D3211AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962E85B2-F1EB-4548-A315-04926FE12DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{A2D50F8C-3EB1-4F62-BF6F-E0B5B8E1087D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A2D50F8C-3EB1-4F62-BF6F-E0B5B8E1087D}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="10" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5106C27A-42D2-498B-AEF6-506943B0B024}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -737,7 +737,7 @@
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56">
+    <row r="9" spans="1:5" ht="28">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -935,6 +935,9 @@
       <c r="D23">
         <v>0.82750000000000001</v>
       </c>
+      <c r="E23">
+        <v>0.57250000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
@@ -948,6 +951,9 @@
       </c>
       <c r="D24">
         <v>0.82830000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.69710000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,6 +969,9 @@
       <c r="D25">
         <v>0.8246</v>
       </c>
+      <c r="E25">
+        <v>0.53979999999999995</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -977,6 +986,9 @@
       <c r="D26">
         <v>0.83199999999999996</v>
       </c>
+      <c r="E26">
+        <v>0.98399999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
@@ -990,6 +1002,9 @@
       </c>
       <c r="D27">
         <v>0.91180000000000005</v>
+      </c>
+      <c r="E27">
+        <v>0.746</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28">
@@ -1467,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDFE516-4713-4FF3-8A07-CE66108C6B8F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
